--- a/Linked.xlsx
+++ b/Linked.xlsx
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Palindrome list</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/palindrome-list/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge two sorted list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/merge-two-sorted-lists/</t>
   </si>
 </sst>
 </file>
@@ -40,6 +46,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -61,6 +68,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,17 +139,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.1938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -152,9 +160,18 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/palindrome-list/"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://www.interviewbit.com/problems/merge-two-sorted-lists/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Linked.xlsx
+++ b/Linked.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Palindrome list</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/merge-two-sorted-lists/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partition list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/partition-list/</t>
   </si>
 </sst>
 </file>
@@ -139,10 +145,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -168,10 +174,19 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/palindrome-list/"/>
     <hyperlink ref="B2" r:id="rId2" display="https://www.interviewbit.com/problems/merge-two-sorted-lists/"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://www.interviewbit.com/problems/partition-list/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Linked.xlsx
+++ b/Linked.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Palindrome list</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/partition-list/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insertion sort list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/insertion-sort-list/</t>
   </si>
 </sst>
 </file>
@@ -145,10 +151,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -182,11 +188,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/palindrome-list/"/>
     <hyperlink ref="B2" r:id="rId2" display="https://www.interviewbit.com/problems/merge-two-sorted-lists/"/>
     <hyperlink ref="B3" r:id="rId3" display="https://www.interviewbit.com/problems/partition-list/"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://www.interviewbit.com/problems/insertion-sort-list/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Linked.xlsx
+++ b/Linked.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Palindrome list</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/insertion-sort-list/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse linked list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/reverse-link-list-ii/</t>
   </si>
 </sst>
 </file>
@@ -151,10 +157,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -196,12 +202,21 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/palindrome-list/"/>
     <hyperlink ref="B2" r:id="rId2" display="https://www.interviewbit.com/problems/merge-two-sorted-lists/"/>
     <hyperlink ref="B3" r:id="rId3" display="https://www.interviewbit.com/problems/partition-list/"/>
     <hyperlink ref="B4" r:id="rId4" display="https://www.interviewbit.com/problems/insertion-sort-list/"/>
+    <hyperlink ref="B5" r:id="rId5" display="https://www.interviewbit.com/problems/reverse-link-list-ii/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Linked.xlsx
+++ b/Linked.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Palindrome list</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/reverse-link-list-ii/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k reverse list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/k-reverse-linked-list/</t>
   </si>
 </sst>
 </file>
@@ -157,10 +163,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -210,6 +216,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/palindrome-list/"/>
@@ -217,6 +231,7 @@
     <hyperlink ref="B3" r:id="rId3" display="https://www.interviewbit.com/problems/partition-list/"/>
     <hyperlink ref="B4" r:id="rId4" display="https://www.interviewbit.com/problems/insertion-sort-list/"/>
     <hyperlink ref="B5" r:id="rId5" display="https://www.interviewbit.com/problems/reverse-link-list-ii/"/>
+    <hyperlink ref="B6" r:id="rId6" display="https://www.interviewbit.com/problems/k-reverse-linked-list/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Linked.xlsx
+++ b/Linked.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">Palindrome list</t>
   </si>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/k-reverse-linked-list/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotate list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/rotate-list/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add two numbers in a list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/add-two-numbers-as-lists/</t>
   </si>
 </sst>
 </file>
@@ -163,16 +175,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.1938775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.7040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.5459183673469"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
@@ -222,6 +234,22 @@
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -232,6 +260,8 @@
     <hyperlink ref="B4" r:id="rId4" display="https://www.interviewbit.com/problems/insertion-sort-list/"/>
     <hyperlink ref="B5" r:id="rId5" display="https://www.interviewbit.com/problems/reverse-link-list-ii/"/>
     <hyperlink ref="B6" r:id="rId6" display="https://www.interviewbit.com/problems/k-reverse-linked-list/"/>
+    <hyperlink ref="B7" r:id="rId7" display="https://www.interviewbit.com/problems/rotate-list/"/>
+    <hyperlink ref="B8" r:id="rId8" display="https://www.interviewbit.com/problems/add-two-numbers-as-lists/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Linked.xlsx
+++ b/Linked.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Palindrome list</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/add-two-numbers-as-lists/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swap values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/swap-list-nodes-in-pairs/</t>
   </si>
 </sst>
 </file>
@@ -175,10 +181,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -252,6 +258,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/palindrome-list/"/>
@@ -262,6 +276,7 @@
     <hyperlink ref="B6" r:id="rId6" display="https://www.interviewbit.com/problems/k-reverse-linked-list/"/>
     <hyperlink ref="B7" r:id="rId7" display="https://www.interviewbit.com/problems/rotate-list/"/>
     <hyperlink ref="B8" r:id="rId8" display="https://www.interviewbit.com/problems/add-two-numbers-as-lists/"/>
+    <hyperlink ref="B9" r:id="rId9" display="https://www.interviewbit.com/problems/swap-list-nodes-in-pairs/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Linked.xlsx
+++ b/Linked.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Palindrome list</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/swap-list-nodes-in-pairs/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List Cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/list-cycle/</t>
   </si>
 </sst>
 </file>
@@ -181,10 +187,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -266,6 +272,14 @@
         <v>17</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/palindrome-list/"/>
@@ -277,6 +291,7 @@
     <hyperlink ref="B7" r:id="rId7" display="https://www.interviewbit.com/problems/rotate-list/"/>
     <hyperlink ref="B8" r:id="rId8" display="https://www.interviewbit.com/problems/add-two-numbers-as-lists/"/>
     <hyperlink ref="B9" r:id="rId9" display="https://www.interviewbit.com/problems/swap-list-nodes-in-pairs/"/>
+    <hyperlink ref="B10" r:id="rId10" display="https://www.interviewbit.com/problems/list-cycle/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
